--- a/contratos/contratos-4-2012.xlsx
+++ b/contratos/contratos-4-2012.xlsx
@@ -430,7 +430,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MOSCA OLGA RAQUEL</t>
@@ -442,7 +442,7 @@
     <t>BAZAR EL ENTRERRIANO S.A.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>TUTTO CONFORE S.R.L.</t>
@@ -484,7 +484,7 @@
     <t>BURGOS SUSANA LUJAN</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>RODE NELSON FEDERICO</t>
@@ -838,328 +838,328 @@
     <t>11</t>
   </si>
   <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>12.524,40</t>
-  </si>
-  <si>
-    <t>89.934,52</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>5.122,49</t>
-  </si>
-  <si>
-    <t>7.540,47</t>
-  </si>
-  <si>
-    <t>591,00</t>
-  </si>
-  <si>
-    <t>10.034,79</t>
-  </si>
-  <si>
-    <t>14,10</t>
-  </si>
-  <si>
-    <t>143,96</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>19.563,86</t>
-  </si>
-  <si>
-    <t>101,60</t>
-  </si>
-  <si>
-    <t>5.190,00</t>
-  </si>
-  <si>
-    <t>144,60</t>
-  </si>
-  <si>
-    <t>11.990,00</t>
-  </si>
-  <si>
-    <t>2.569,00</t>
-  </si>
-  <si>
-    <t>519,20</t>
-  </si>
-  <si>
-    <t>3.564,00</t>
-  </si>
-  <si>
-    <t>19.362,78</t>
-  </si>
-  <si>
-    <t>8.012,00</t>
-  </si>
-  <si>
-    <t>1.005,00</t>
-  </si>
-  <si>
-    <t>874,74</t>
-  </si>
-  <si>
-    <t>84,50</t>
-  </si>
-  <si>
-    <t>1.128,00</t>
-  </si>
-  <si>
-    <t>6,78</t>
-  </si>
-  <si>
-    <t>691,00</t>
-  </si>
-  <si>
-    <t>33.542,88</t>
-  </si>
-  <si>
-    <t>7.756,64</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>2.384,50</t>
-  </si>
-  <si>
-    <t>588,00</t>
-  </si>
-  <si>
-    <t>7.982,32</t>
-  </si>
-  <si>
-    <t>194,32</t>
-  </si>
-  <si>
-    <t>15.447,00</t>
-  </si>
-  <si>
-    <t>890,00</t>
-  </si>
-  <si>
-    <t>3.760,00</t>
-  </si>
-  <si>
-    <t>43.077,24</t>
-  </si>
-  <si>
-    <t>9.397,50</t>
-  </si>
-  <si>
-    <t>647,00</t>
-  </si>
-  <si>
-    <t>478,38</t>
-  </si>
-  <si>
-    <t>9.030,00</t>
-  </si>
-  <si>
-    <t>199,00</t>
-  </si>
-  <si>
-    <t>4,38</t>
-  </si>
-  <si>
-    <t>144.870,00</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>3,60</t>
-  </si>
-  <si>
-    <t>70,96</t>
-  </si>
-  <si>
-    <t>62,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>26.506,90</t>
-  </si>
-  <si>
-    <t>2.156,30</t>
-  </si>
-  <si>
-    <t>1.327,00</t>
-  </si>
-  <si>
-    <t>36,00</t>
-  </si>
-  <si>
-    <t>7.550,00</t>
-  </si>
-  <si>
-    <t>561,75</t>
-  </si>
-  <si>
-    <t>466,00</t>
-  </si>
-  <si>
-    <t>8.889,00</t>
-  </si>
-  <si>
-    <t>11.116,00</t>
-  </si>
-  <si>
-    <t>73.500,00</t>
-  </si>
-  <si>
-    <t>14.052,00</t>
-  </si>
-  <si>
-    <t>902,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>4.813,38</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>24.723,25</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>3.920,00</t>
-  </si>
-  <si>
-    <t>1.815,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>3.642,90</t>
-  </si>
-  <si>
-    <t>1.560,90</t>
-  </si>
-  <si>
-    <t>670,00</t>
-  </si>
-  <si>
-    <t>4.385,00</t>
-  </si>
-  <si>
-    <t>2.581,40</t>
-  </si>
-  <si>
-    <t>2.581,06</t>
-  </si>
-  <si>
-    <t>1.290,00</t>
-  </si>
-  <si>
-    <t>511,53</t>
-  </si>
-  <si>
-    <t>288,00</t>
-  </si>
-  <si>
-    <t>6.032,00</t>
-  </si>
-  <si>
-    <t>930,00</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>117,90</t>
-  </si>
-  <si>
-    <t>2.452,50</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>740,40</t>
-  </si>
-  <si>
-    <t>2.119,64</t>
-  </si>
-  <si>
-    <t>4.438,97</t>
-  </si>
-  <si>
-    <t>1.380,01</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>9.780,00</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>2.101,94</t>
-  </si>
-  <si>
-    <t>1.070,00</t>
-  </si>
-  <si>
-    <t>116.667,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>33.300,00</t>
-  </si>
-  <si>
-    <t>49.000,00</t>
-  </si>
-  <si>
-    <t>78.000,00</t>
-  </si>
-  <si>
-    <t>1.720,00</t>
-  </si>
-  <si>
-    <t>651,00</t>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>12524.40</t>
+  </si>
+  <si>
+    <t>89934.52</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>5122.49</t>
+  </si>
+  <si>
+    <t>7540.47</t>
+  </si>
+  <si>
+    <t>591.00</t>
+  </si>
+  <si>
+    <t>10034.79</t>
+  </si>
+  <si>
+    <t>14.10</t>
+  </si>
+  <si>
+    <t>143.96</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>19563.86</t>
+  </si>
+  <si>
+    <t>101.60</t>
+  </si>
+  <si>
+    <t>5190.00</t>
+  </si>
+  <si>
+    <t>144.60</t>
+  </si>
+  <si>
+    <t>11990.00</t>
+  </si>
+  <si>
+    <t>2569.00</t>
+  </si>
+  <si>
+    <t>519.20</t>
+  </si>
+  <si>
+    <t>3564.00</t>
+  </si>
+  <si>
+    <t>19362.78</t>
+  </si>
+  <si>
+    <t>8012.00</t>
+  </si>
+  <si>
+    <t>1005.00</t>
+  </si>
+  <si>
+    <t>874.74</t>
+  </si>
+  <si>
+    <t>84.50</t>
+  </si>
+  <si>
+    <t>1128.00</t>
+  </si>
+  <si>
+    <t>6.78</t>
+  </si>
+  <si>
+    <t>691.00</t>
+  </si>
+  <si>
+    <t>33542.88</t>
+  </si>
+  <si>
+    <t>7756.64</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>2384.50</t>
+  </si>
+  <si>
+    <t>588.00</t>
+  </si>
+  <si>
+    <t>7982.32</t>
+  </si>
+  <si>
+    <t>194.32</t>
+  </si>
+  <si>
+    <t>15447.00</t>
+  </si>
+  <si>
+    <t>890.00</t>
+  </si>
+  <si>
+    <t>3760.00</t>
+  </si>
+  <si>
+    <t>43077.24</t>
+  </si>
+  <si>
+    <t>9397.50</t>
+  </si>
+  <si>
+    <t>647.00</t>
+  </si>
+  <si>
+    <t>478.38</t>
+  </si>
+  <si>
+    <t>9030.00</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>144870.00</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>70.96</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>26506.90</t>
+  </si>
+  <si>
+    <t>2156.30</t>
+  </si>
+  <si>
+    <t>1327.00</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>7550.00</t>
+  </si>
+  <si>
+    <t>561.75</t>
+  </si>
+  <si>
+    <t>466.00</t>
+  </si>
+  <si>
+    <t>8889.00</t>
+  </si>
+  <si>
+    <t>11116.00</t>
+  </si>
+  <si>
+    <t>73500.00</t>
+  </si>
+  <si>
+    <t>14052.00</t>
+  </si>
+  <si>
+    <t>902.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>4813.38</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>24723.25</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>3920.00</t>
+  </si>
+  <si>
+    <t>1815.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>3642.90</t>
+  </si>
+  <si>
+    <t>1560.90</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>4385.00</t>
+  </si>
+  <si>
+    <t>2581.40</t>
+  </si>
+  <si>
+    <t>2581.06</t>
+  </si>
+  <si>
+    <t>1290.00</t>
+  </si>
+  <si>
+    <t>511.53</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>6032.00</t>
+  </si>
+  <si>
+    <t>930.00</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>117.90</t>
+  </si>
+  <si>
+    <t>2452.50</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>740.40</t>
+  </si>
+  <si>
+    <t>2119.64</t>
+  </si>
+  <si>
+    <t>4438.97</t>
+  </si>
+  <si>
+    <t>1380.01</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>9780.00</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>2101.94</t>
+  </si>
+  <si>
+    <t>1070.00</t>
+  </si>
+  <si>
+    <t>116667.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>33300.00</t>
+  </si>
+  <si>
+    <t>49000.00</t>
+  </si>
+  <si>
+    <t>78000.00</t>
+  </si>
+  <si>
+    <t>1720.00</t>
+  </si>
+  <si>
+    <t>651.00</t>
   </si>
 </sst>
 </file>
